--- a/LY354740_Rat/Anaesthetized/LYAnaesthetized_params.xlsx
+++ b/LY354740_Rat/Anaesthetized/LYAnaesthetized_params.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\Documents\GitHub\Marios-temp\LY354740_Rat\Anaesthetized\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpanagi\Documents\GitHub\Marios-temp\LY354740_Rat\Anaesthetized\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{831099EB-D22C-49B3-9168-5F64CE68C6AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA479E8-9265-4B85-AE8A-1C9FDA425C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="4140" windowWidth="21180" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,16 +428,16 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -466,7 +466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2">
         <v>3</v>
@@ -495,7 +495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2">
         <v>3</v>
@@ -524,7 +524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2">
         <v>3</v>
@@ -553,7 +553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G5" s="2">
         <v>3</v>
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2">
         <v>3</v>
@@ -611,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G7" s="2">
         <v>3</v>
@@ -640,7 +640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2">
         <v>3</v>
@@ -669,7 +669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G9" s="2">
         <v>3</v>
@@ -698,7 +698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2">
         <v>3</v>
@@ -727,7 +727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2">
         <v>3</v>
@@ -756,7 +756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
@@ -785,7 +785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2">
         <v>3</v>
@@ -814,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -828,7 +828,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
